--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/8 Matriz de Riesgos/2 Matriz de Riesgos de Transacciones Significativas.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/8 Matriz de Riesgos/2 Matriz de Riesgos de Transacciones Significativas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\8 Matriz de Riesgos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\8 Matriz de Riesgos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE917B8-60AB-4DE1-93A8-0F1A108A509D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18EF55D-F213-415B-A49D-6D670693C4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -422,6 +422,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -997,7 +1003,7 @@
   <dimension ref="A3:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,36 +1034,42 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="F6" s="14" t="s">
+      <c r="D6" s="32" t="s">
         <v>33</v>
       </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="14"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="33" t="s">
         <v>1</v>
       </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="G7" s="15"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="E8" s="5"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="33" t="s">
         <v>34</v>
       </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="15"/>
       <c r="I8" s="5"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="E9" s="6"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="32" t="s">
         <v>31</v>
       </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="14"/>
       <c r="H9" s="7"/>
       <c r="I9" s="6"/>
@@ -1435,6 +1447,12 @@
       <c r="D52" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1442,7 +1460,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId4" name="Control 4">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -1462,13 +1480,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId4" name="Control 4"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId6" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -1487,13 +1505,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId6" name="Control 3"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId8" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="1027" r:id="rId7" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -1512,13 +1530,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId8" name="Control 2"/>
+        <control shapeId="1027" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId9" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="1028" r:id="rId8" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -1537,7 +1555,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId9" name="Control 1"/>
+        <control shapeId="1028" r:id="rId8" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
